--- a/Latent Subgraph Justifications.xlsx
+++ b/Latent Subgraph Justifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f8f3b5ac755099a/Documents/Year 4/CPE440/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{2C344A4E-76BD-42FA-BEC6-74F46001CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B03C29-8249-4741-B1A1-3C5ACE67E6C5}"/>
+  <xr:revisionPtr revIDLastSave="523" documentId="8_{2C344A4E-76BD-42FA-BEC6-74F46001CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6331600-5734-4B6E-83D4-FF9EA344090E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C3F72429-7174-4039-832C-52C9E8A23076}"/>
+    <workbookView minimized="1" xWindow="2196" yWindow="2244" windowWidth="13824" windowHeight="7536" activeTab="7" xr2:uid="{C3F72429-7174-4039-832C-52C9E8A23076}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph Types" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Tank" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
   <si>
     <t>P1</t>
   </si>
@@ -450,6 +449,190 @@
   </si>
   <si>
     <t>As flash is about separation via pressure, only confident about P effects. Therefore T only causes T</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>All compositions cuase</t>
+  </si>
+  <si>
+    <t>For all units assume that the composition of all components can cause and be affected 
+Include this mode in reactions also for continuity?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F in i </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a solid or liquid component to the stream </t>
+  </si>
+  <si>
+    <t>P unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F in i, P in i </t>
+  </si>
+  <si>
+    <t>Assumes solid and liquids remain in this phase to affect level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume all gases remain in this phase to affect pressure </t>
+  </si>
+  <si>
+    <t>T unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All flows assumed to affect unit regardless of reactant content as there will be a holdup change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X  inA I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If A is a reactant </t>
+  </si>
+  <si>
+    <t>There is a gas component to the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no gas to affect pressure so must be liquid or solid streams changing phase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no liquid or solid to affect level so must be gas streams changing phase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream is a liquid or solid and there is no gas component of any inlet stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream is a gas and there is no liquid or solid component of any inlet stream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only compositions which are reactants in reactions occuring within this unit affect T. Assume that an increase in a non reactant would not cause a decrease in other components so no cause effect relationship present </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If stream is purely gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F out i, P out i </t>
+  </si>
+  <si>
+    <t>If stream is not purely gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuming that pressure only causes pure gas streams as they are vented from the top of the vessel and all liquid and solid can't make it to the top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any stream with a solid or liquid component assumed to be taken from the bottom of the vessel, even if there is a gaseous element to it </t>
+  </si>
+  <si>
+    <t>P unit, T unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X outA i </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit conditions affect all measured outlet compositions as any change will affect extent of reactions and hence the mix off all components </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of a non pure gas stream if there are no pure gas streams </t>
+  </si>
+  <si>
+    <t>If there are no outlet gas streams the unit pressure is assumed to control all flows instead</t>
+  </si>
+  <si>
+    <t>F feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inlet flow affects the flow rate of gas up the column and hence the pressure sensors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inlet flow affects liquid flow down the column and hence level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X feed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed composition affects the amount of gas and liquid entering the column </t>
+  </si>
+  <si>
+    <t>X reboil, X reflux</t>
+  </si>
+  <si>
+    <t>unit sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different composition will change Cp and therefore T but don't think this is significant enough </t>
+  </si>
+  <si>
+    <t>If there is a reflux system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T unit closest, P unit closet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top, bottom, product stream compositions affected by closest sensor as unit sensors linked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F reflux, T reflux </t>
+  </si>
+  <si>
+    <t>P unit i -&gt; P unit i+1 -&gt; … -&gt; P top, L unit</t>
+  </si>
+  <si>
+    <t>P unit i -&gt; P unit i+1 -&gt; … -&gt; P top</t>
+  </si>
+  <si>
+    <t>T unit i -&gt; T unit i-1 -&gt; … -&gt; T bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflux stream typically cools down column with liquid stream and is influential on T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F reflux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquid stream in will affect L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F reboil, T reboil </t>
+  </si>
+  <si>
+    <t>T unit i -&gt; T unit i+1 -&gt; … -&gt; T top</t>
+  </si>
+  <si>
+    <t>If there is a reboil system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reboil stream is hot vapour which heats the column </t>
+  </si>
+  <si>
+    <t>P unit i -&gt; P unit i+1 -&gt; … -&gt; P unit above feed</t>
+  </si>
+  <si>
+    <t>F reboil, P reboil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapour stream changes pressure to the top of the column. Edges already in place from feed upwards so only go to this point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is no reboil or reflux </t>
+  </si>
+  <si>
+    <t>T feed</t>
+  </si>
+  <si>
+    <t>T unit i -&gt; T unit i+1 -&gt; … -&gt; T top -&gt; T unit i-1 -&gt; … -&gt; T bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is nor eflux or reboil then the feed strema is the main cause of temperature </t>
+  </si>
+  <si>
+    <t>X outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F prod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closest T,P sensors affect amout of each product fraction </t>
   </si>
 </sst>
 </file>
@@ -586,19 +769,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,23 +790,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +823,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688477A9-EC38-4360-B8E8-3FC32D8CB6D8}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +1172,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1007,7 +1186,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
         <v>88</v>
       </c>
@@ -1019,7 +1198,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
@@ -1031,7 +1210,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
@@ -1046,7 +1225,7 @@
       <c r="A6" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1060,7 +1239,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1084,35 +1263,46 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1120,7 +1310,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1160,40 +1350,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -1310,12 +1500,12 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" s="3"/>
@@ -1475,21 +1665,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
@@ -1497,21 +1687,21 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -1529,7 +1719,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1732,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1760,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1773,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1596,12 +1786,12 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="9"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="9"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -1610,13 +1800,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1632,125 +1822,125 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
-    <col min="2" max="2" width="12.5546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="58.5546875" style="16" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="16"/>
-    <col min="10" max="10" width="19.21875" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="12.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="58.5546875" style="9" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="9"/>
+    <col min="10" max="10" width="19.21875" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1758,12 +1948,12 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1771,12 +1961,12 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1784,12 +1974,12 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1797,12 +1987,12 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1810,122 +2000,122 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1934,13 +2124,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1966,21 +2156,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
@@ -1988,24 +2178,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
@@ -2020,7 +2210,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>55</v>
       </c>
@@ -2033,7 +2223,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -2070,7 +2260,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B8" t="s">
@@ -2085,7 +2275,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -2098,7 +2288,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2144,7 +2334,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,43 +2349,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B3" t="s">
@@ -2218,7 +2408,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>118</v>
       </c>
@@ -2231,7 +2421,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="10"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2243,12 +2433,12 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="8"/>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>112</v>
       </c>
@@ -2261,7 +2451,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="9"/>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -2288,102 +2478,197 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA49A0-2271-4C80-8A6D-E37BF4856BED}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="49.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="58.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="18.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="49.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="58.5546875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="19.21875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2399,14 +2684,235 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9046291-EF1B-45C1-8D46-C9F2F4416829}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Latent Subgraph Justifications.xlsx
+++ b/Latent Subgraph Justifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f8f3b5ac755099a/Documents/Year 4/CPE440/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="523" documentId="8_{2C344A4E-76BD-42FA-BEC6-74F46001CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6331600-5734-4B6E-83D4-FF9EA344090E}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{2C344A4E-76BD-42FA-BEC6-74F46001CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B16024-9E74-47F8-A789-819BE21941B5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2196" yWindow="2244" windowWidth="13824" windowHeight="7536" activeTab="7" xr2:uid="{C3F72429-7174-4039-832C-52C9E8A23076}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3F72429-7174-4039-832C-52C9E8A23076}"/>
   </bookViews>
   <sheets>
     <sheet name="Graph Types" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
   <si>
     <t>P1</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t xml:space="preserve">Closest T,P sensors affect amout of each product fraction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the same for the FCCU dataset so not important </t>
   </si>
 </sst>
 </file>
@@ -778,6 +781,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,9 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -823,6 +826,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688477A9-EC38-4360-B8E8-3FC32D8CB6D8}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1179,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1186,7 +1193,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>88</v>
       </c>
@@ -1198,7 +1205,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
@@ -1210,7 +1217,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
@@ -1225,7 +1232,7 @@
       <c r="A6" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1239,7 +1246,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1274,7 +1281,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1283,17 +1290,21 @@
       <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>97</v>
       </c>
@@ -1301,16 +1312,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1350,43 +1362,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
@@ -1401,7 +1413,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1426,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1439,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1452,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1455,7 +1467,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1468,7 +1480,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1493,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1500,12 +1512,12 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" s="3"/>
@@ -1665,21 +1677,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
@@ -1687,24 +1699,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
@@ -1719,7 +1731,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1744,7 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +1757,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B6" t="s">
@@ -1760,7 +1772,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1785,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1835,43 +1847,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1894,7 +1906,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1927,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +1948,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1949,7 +1961,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
@@ -1962,7 +1974,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
@@ -1975,7 +1987,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +2000,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -2001,7 +2013,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -2013,7 +2025,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2027,7 +2039,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -2039,7 +2051,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
@@ -2051,7 +2063,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2075,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
@@ -2075,7 +2087,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
@@ -2087,7 +2099,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
@@ -2099,7 +2111,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2123,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
@@ -2156,21 +2168,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
@@ -2178,21 +2190,21 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2349,40 +2361,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -2498,21 +2510,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -2520,21 +2532,21 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -2686,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9046291-EF1B-45C1-8D46-C9F2F4416829}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2702,40 +2714,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
